--- a/biology/Médecine/Renée_Lemaire/Renée_Lemaire.xlsx
+++ b/biology/Médecine/Renée_Lemaire/Renée_Lemaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9e_Lemaire</t>
+          <t>Renée_Lemaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Renée Lemaire, l'ange de Bastogne, née le 10 avril 1914 à Bastogne et morte le 24 décembre 1944, lors du siège de Bastogne, est une infirmière qui s'était portée volontaire pour soigner des soldats américains dans un dispensaire aménagé dans un établissement commercial à Bastogne. Elle périt à la suite du bombardement de l'antenne médicale, le soir de la Noël 1944 [1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Renée Lemaire, l'ange de Bastogne, née le 10 avril 1914 à Bastogne et morte le 24 décembre 1944, lors du siège de Bastogne, est une infirmière qui s'était portée volontaire pour soigner des soldats américains dans un dispensaire aménagé dans un établissement commercial à Bastogne. Elle périt à la suite du bombardement de l'antenne médicale, le soir de la Noël 1944 ,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9e_Lemaire</t>
+          <t>Renée_Lemaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Renée Lemaire, née à Bastogne, travaille à Bruxelles en qualité d'infirmière à l'hôpital Brugmann. Durant le congé de fin d'année, elle se rend chez ses parents à Bastogne. Elle est surprise par l'offensive allemande de la dernière chance. Le 20 décembre 1944, le siège de Bastogne est complet. L'aide médicale, le ravitaillement ne parviennent plus aux troupes américaines retranchées dans la ville. Le 21 décembre 1944, Renée Lemaire et une autre infirmière ayant fait la route depuis Louvain, Augusta Chiwy, se portent volontaires. Elles se présentent au capitaine-chirurgien Jack T. Prior du 20th Armored Infantry Battalion qui accepte leur aide.
-Les Américains s'étant repliés depuis Noville sur Bastogne y installent un hôpital de fortune dans un ancien Sarma disposant d'une cuisine à l'arrière. 150 soldats américains y sont installés, les médicaments manquent. Augusta Chiwy et Renée Lemaire n'ont de cesse de venir en aide aux blessés[3].
-Jack T. Prior, dans son rapport, explique que la nuit de la veillée de Noël, vers 20h30, le quartier fut illuminé comme en plein jour par des fusées éclairantes allemandes au magnésium, qu'un terrible bombardement s'ensuivit et qu'une des bombes tomba directement sur le dispensaire. Les soldats bivouaquant dans des maisons attenantes se sont alors précipités pour sauver les blessés ensevelis sous les décombres. C'est alors que le bombardier ayant fait demi-tour mitrailla les lieux du sinistre, manœuvre qu'il réitéra plusieurs fois. Quelques blessés purent être évacués de la cave par un soupirail avant que celle-ci ne s'effondre complètement. Une trentaine de corps seront extraits des gravats parmi ceux-ci, celui de Renée Lemaire[4].
-Le docteur Prior ramènera personnellement la dépouille de Renée Lemaire à ses parents, enveloppée dans la toile de parachute qu'elle avait insisté de pouvoir récupérer, le matin même, pour s'en faire un jour, disait-elle, une robe de mariée[4].
+Les Américains s'étant repliés depuis Noville sur Bastogne y installent un hôpital de fortune dans un ancien Sarma disposant d'une cuisine à l'arrière. 150 soldats américains y sont installés, les médicaments manquent. Augusta Chiwy et Renée Lemaire n'ont de cesse de venir en aide aux blessés.
+Jack T. Prior, dans son rapport, explique que la nuit de la veillée de Noël, vers 20h30, le quartier fut illuminé comme en plein jour par des fusées éclairantes allemandes au magnésium, qu'un terrible bombardement s'ensuivit et qu'une des bombes tomba directement sur le dispensaire. Les soldats bivouaquant dans des maisons attenantes se sont alors précipités pour sauver les blessés ensevelis sous les décombres. C'est alors que le bombardier ayant fait demi-tour mitrailla les lieux du sinistre, manœuvre qu'il réitéra plusieurs fois. Quelques blessés purent être évacués de la cave par un soupirail avant que celle-ci ne s'effondre complètement. Une trentaine de corps seront extraits des gravats parmi ceux-ci, celui de Renée Lemaire.
+Le docteur Prior ramènera personnellement la dépouille de Renée Lemaire à ses parents, enveloppée dans la toile de parachute qu'elle avait insisté de pouvoir récupérer, le matin même, pour s'en faire un jour, disait-elle, une robe de mariée.
 </t>
         </is>
       </c>
